--- a/src/main/webapp/download/excel/报目表2018-09-13/订单2018-09-13.xlsx
+++ b/src/main/webapp/download/excel/报目表2018-09-13/订单2018-09-13.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
   <si>
     <t>类别</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -30,10 +30,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>图纸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>数量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -58,31 +54,49 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>总图号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交货日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>自动化</t>
   </si>
   <si>
+    <t>20180824-651</t>
+  </si>
+  <si>
+    <t>导轨板</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>项目编号XJSCY,工装号: 21E809-014-B1</t>
+  </si>
+  <si>
+    <t>ea</t>
+  </si>
+  <si>
+    <t>2018-09-28</t>
+  </si>
+  <si>
     <t>20180824-599</t>
   </si>
   <si>
     <t>感应片</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>ea</t>
-  </si>
-  <si>
     <t>20180824-650</t>
   </si>
   <si>
     <t>短销</t>
-  </si>
-  <si>
-    <t>20180824-606</t>
-  </si>
-  <si>
-    <t>插座组件底板</t>
   </si>
 </sst>
 </file>
@@ -434,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -446,15 +460,16 @@
     <col min="3" max="3" customWidth="true" width="39.125" collapsed="false"/>
     <col min="4" max="4" customWidth="true" width="32.75" collapsed="false"/>
     <col min="5" max="5" customWidth="true" width="26.875" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" width="29.5" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="13.5" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" width="29.5" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -463,102 +478,112 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>5</v>
-      </c>
-      <c r="J1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2"/>
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
       <c r="F2" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2"/>
-      <c r="I2"/>
-      <c r="J2"/>
-      <c r="K2"/>
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3"/>
       <c r="F3" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3"/>
-      <c r="I3"/>
-      <c r="J3"/>
-      <c r="K3"/>
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="G4" t="s">
         <v>17</v>
       </c>
-      <c r="C4" t="s">
+      <c r="H4" t="s">
         <v>18</v>
       </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4"/>
-      <c r="F4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4"/>
-      <c r="I4"/>
-      <c r="J4"/>
-      <c r="K4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
